--- a/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
+++ b/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6779</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.64</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.28</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519068</t>
+          <t>206009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富成长焦点混合</t>
+          <t>鹏华新兴产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>206009</t>
+          <t>519068</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华新兴产业混合</t>
+          <t>汇添富成长焦点混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>80.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005708</t>
+          <t>005967</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安远见成长混合</t>
+          <t>鹏华创新驱动混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005967</t>
+          <t>005708</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华创新驱动混合</t>
+          <t>国联安远见成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
+++ b/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6438</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
+++ b/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
+++ b/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
+++ b/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.32</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.050000000000001</v>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8952</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.05</v>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7461</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2966</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.92</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
+++ b/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.77</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.32</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.050000000000001</v>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2258,14 +2345,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.05</v>
       </c>
     </row>
     <row r="6">
@@ -2274,13 +2383,775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.92</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
+++ b/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3034,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,17 +3046,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3065,14 +3086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.25</v>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3081,14 +3124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.77</v>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3097,14 +3162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.32</v>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3113,14 +3200,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.050000000000001</v>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3129,14 +3238,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.05</v>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3145,13 +3276,1093 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.92</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
+++ b/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>5.8</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>14.77</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>4.32</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>9.050000000000001</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>7.05</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.92</v>
       </c>
     </row>
@@ -600,6 +617,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6754</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015767</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +2852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2647,7 +3706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3539,7 +4598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3823,7 +4882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3993,7 +5052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4201,7 +5260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
+++ b/数据整理/stocks/A股/上证主板/603713-密尔克卫.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>5.33</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>5.8</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>14.77</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>4.32</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>9.050000000000001</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7.05</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.92</v>
       </c>
     </row>
@@ -616,7 +633,763 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6779</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1658,7 +2431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2852,7 +3625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3706,7 +4479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4598,7 +5371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4882,7 +5655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5052,7 +5825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5258,174 +6031,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>139.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.6779</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>233009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大摩多因子精选策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2085</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005708</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安远见成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>